--- a/D19005_Ankit_Sekseria_Model_monitor.xlsx
+++ b/D19005_Ankit_Sekseria_Model_monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankit\Desktop\Praxis\Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AA0FEB-9A95-47C1-9656-1629012A4FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4A5EA6-A7D7-4756-A9D2-5E6BB6979D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A472952-3F32-4509-BB36-BE943319FA9D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Parameters</t>
   </si>
@@ -126,7 +126,10 @@
     <t>AdaDelta</t>
   </si>
   <si>
-    <t>Highest VA accuracy in Network 9</t>
+    <t>Highest VA accuracy in Network 9 with maximum parameters</t>
+  </si>
+  <si>
+    <t>Highest VA accuracy in Network 7 for minimum parameters</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +169,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,14 +206,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287BBBB9-F145-4030-8AFF-2FAA538DFC72}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,43 +558,43 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -799,37 +809,37 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>109386</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>255</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>128</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <v>64</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="5">
         <v>96.3</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="5">
         <v>97.1</v>
       </c>
     </row>
@@ -869,43 +879,48 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>435402</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>255</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>512</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>64</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>96.9</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>97.6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
